--- a/testData/opencart_loginData.xlsx
+++ b/testData/opencart_loginData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C4075A52-D99B-4BE4-AA29-ED8A7E0AF2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{160B4C5C-31A5-4910-90BB-BBD2B5E7B6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{A1C498CE-DEF5-435E-B18F-89EE26743D65}"/>
   </bookViews>
@@ -15,15 +15,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -428,7 +419,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
